--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/76.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/76.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04409290186905503</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.671001408309909</v>
+        <v>-1.67159638753776</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2034709766416977</v>
+        <v>-0.2038991098426915</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3126717012201756</v>
+        <v>-0.3118248789329158</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03333400980806161</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.810954531470799</v>
+        <v>-1.811615619501745</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1892355477086543</v>
+        <v>-0.1897864544011096</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3146203368923458</v>
+        <v>-0.3136444450371394</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.02527299089383315</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.98921062293898</v>
+        <v>-1.989495520399936</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2627768690940651</v>
+        <v>-0.2639321991290998</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3456536978879102</v>
+        <v>-0.3450099240672982</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.02165350399308113</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.018153686541457</v>
+        <v>-2.017482367386223</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2365127860360418</v>
+        <v>-0.2379703277423662</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3504560302269986</v>
+        <v>-0.3493400506699963</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.01916487437361967</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.955927988619077</v>
+        <v>-1.954831684301091</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1893535991427519</v>
+        <v>-0.1918893439471673</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3642208274427731</v>
+        <v>-0.3631441983638034</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.01840251352516981</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.710270037348118</v>
+        <v>-1.70833556784804</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1643833598024378</v>
+        <v>-0.16620135188754</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3817239200716367</v>
+        <v>-0.3801278646826378</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.02014437483140267</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.487687206395427</v>
+        <v>-1.483900116389578</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04575426068736882</v>
+        <v>-0.04830259764475463</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3647953444220478</v>
+        <v>-0.3635062227617026</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.02258672677167873</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.203772720381255</v>
+        <v>-1.199422918539541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003134773220230545</v>
+        <v>0.001104288553752658</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3168160935665603</v>
+        <v>-0.3161376913252797</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.01886062628062623</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.020287737392113</v>
+        <v>-1.016105568586817</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1479083299401039</v>
+        <v>0.1456448904436735</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3104712224885972</v>
+        <v>-0.3096448624499143</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.001408832579874898</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7882647267594209</v>
+        <v>-0.7848018846925594</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1727463516742287</v>
+        <v>0.1713407525989072</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2962704219762224</v>
+        <v>-0.2957352554749801</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.04678640693025961</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5607811872725603</v>
+        <v>-0.557104278605202</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1655924347679171</v>
+        <v>0.1641868356925956</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2491521595800863</v>
+        <v>-0.2490687365666573</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1240675668296323</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3525620678112989</v>
+        <v>-0.3478352883900329</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01148943843577415</v>
+        <v>-0.01286670516691225</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1981319037822458</v>
+        <v>-0.1980374626349678</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2359936321503773</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04311148258270496</v>
+        <v>-0.03893560985389424</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1299438214283787</v>
+        <v>-0.130494728120834</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0885187861939872</v>
+        <v>-0.08892803116552539</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3781528203317202</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3522679545159361</v>
+        <v>0.3571505618302108</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4054207779428186</v>
+        <v>-0.4063085247272322</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04089076988287015</v>
+        <v>0.03999830104109265</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5396761031934405</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7102628634645646</v>
+        <v>0.7160253474676463</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6100841882090619</v>
+        <v>-0.6108538835593779</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08156499799640121</v>
+        <v>0.08105186776285719</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.706117293699301</v>
       </c>
       <c r="E17" t="n">
-        <v>1.203340093403218</v>
+        <v>1.209220628840397</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7239802118263796</v>
+        <v>-0.7260610651047391</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1436553302743495</v>
+        <v>0.1427880457385128</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8726436683042993</v>
       </c>
       <c r="E18" t="n">
-        <v>1.557303939382195</v>
+        <v>1.562683936738801</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9175035017616172</v>
+        <v>-0.9201022073308847</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1970932794425078</v>
+        <v>0.1961079434725736</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.043002682095241</v>
       </c>
       <c r="E19" t="n">
-        <v>1.923686796228235</v>
+        <v>1.928405705553895</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.025169557696827</v>
+        <v>-1.028115334482341</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2621443416876226</v>
+        <v>0.2612975194003628</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.216036954099595</v>
       </c>
       <c r="E20" t="n">
-        <v>2.236762347493185</v>
+        <v>2.24260195843321</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.241889954432233</v>
+        <v>-1.24435486837619</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3316231197209563</v>
+        <v>0.3311509139845661</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.384768892162815</v>
       </c>
       <c r="E21" t="n">
-        <v>2.49858311411122</v>
+        <v>2.503766359077663</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.274890839329424</v>
+        <v>-1.278331645128587</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4574376161247629</v>
+        <v>0.4565372771873789</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.542666914556643</v>
       </c>
       <c r="E22" t="n">
-        <v>2.721018774276069</v>
+        <v>2.725353622936131</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.386122048574379</v>
+        <v>-1.389577807555195</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4584623025727296</v>
+        <v>0.4578830635360909</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.685083002587472</v>
       </c>
       <c r="E23" t="n">
-        <v>2.79748934524622</v>
+        <v>2.803242385134574</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.495804423003975</v>
+        <v>-1.498946165170091</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5570289539677</v>
+        <v>0.5566338751682535</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.809629446333876</v>
       </c>
       <c r="E24" t="n">
-        <v>2.923025240265557</v>
+        <v>2.928098303893509</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.63968393686295</v>
+        <v>-1.641834046982646</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5975080037101898</v>
+        <v>0.5972356984022047</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.916622995998031</v>
       </c>
       <c r="E25" t="n">
-        <v>2.933141461158156</v>
+        <v>2.937287427523662</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.589625406748224</v>
+        <v>-1.591881763158608</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6514118625382531</v>
+        <v>0.6513300135439455</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.004244793944517</v>
       </c>
       <c r="E26" t="n">
-        <v>2.918756500408589</v>
+        <v>2.923615497436044</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.505679818971016</v>
+        <v>-1.508049504758134</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5922555019024094</v>
+        <v>0.5927387257726486</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.071560155253337</v>
       </c>
       <c r="E27" t="n">
-        <v>2.990915833005498</v>
+        <v>2.994573853443401</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.549372228749641</v>
+        <v>-1.551059577247675</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6220878863084213</v>
+        <v>0.6220847382701787</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.119179943909833</v>
       </c>
       <c r="E28" t="n">
-        <v>2.931191251466865</v>
+        <v>2.934068558420602</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.503327447394232</v>
+        <v>-1.50466851168558</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6397751391744771</v>
+        <v>0.6400631846736752</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.148374771112508</v>
       </c>
       <c r="E29" t="n">
-        <v>2.796988807165647</v>
+        <v>2.800964779466052</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.658458836941824</v>
+        <v>-1.658268380628147</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6095429539116548</v>
+        <v>0.6098908121374623</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.161694873582504</v>
       </c>
       <c r="E30" t="n">
-        <v>2.754502883043498</v>
+        <v>2.757136217033434</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.643531626604969</v>
+        <v>-1.643016922352304</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5609781679430434</v>
+        <v>0.5616235157827767</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.161700324361776</v>
       </c>
       <c r="E31" t="n">
-        <v>2.640129931632427</v>
+        <v>2.642986776337587</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.682220229596979</v>
+        <v>-1.681393082548736</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5539328583561015</v>
+        <v>0.5544522846661307</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.147478161413169</v>
       </c>
       <c r="E32" t="n">
-        <v>2.599858652413948</v>
+        <v>2.603116871995041</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.727553554309561</v>
+        <v>-1.726696500898012</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5454158408907435</v>
+        <v>0.5454913938085659</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.117339984780668</v>
       </c>
       <c r="E33" t="n">
-        <v>2.424106825367756</v>
+        <v>2.427568093415497</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.719466244064318</v>
+        <v>-1.719019222633868</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5412242279707198</v>
+        <v>0.5415201435655242</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.070929634957748</v>
       </c>
       <c r="E34" t="n">
-        <v>2.25085454068619</v>
+        <v>2.254839957101323</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.709571959867821</v>
+        <v>-1.709901716873734</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4820001845126601</v>
+        <v>0.4823118402986776</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.009359415259355</v>
       </c>
       <c r="E35" t="n">
-        <v>2.09736091803431</v>
+        <v>2.101794929899015</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.749729122700005</v>
+        <v>-1.749697642317579</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4195242175499932</v>
+        <v>0.4195525498941766</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.935756778573722</v>
       </c>
       <c r="E36" t="n">
-        <v>1.947199493862225</v>
+        <v>1.95065446583348</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.61648604305322</v>
+        <v>-1.617886920071178</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4218033972376366</v>
+        <v>0.4220552402970447</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.853121498568285</v>
       </c>
       <c r="E37" t="n">
-        <v>1.746667883789396</v>
+        <v>1.751090877520251</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.601898820846566</v>
+        <v>-1.603660148243301</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3397560765207169</v>
+        <v>0.3408940923454173</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.761516131956171</v>
       </c>
       <c r="E38" t="n">
-        <v>1.628301645867584</v>
+        <v>1.632837968975173</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.499040606317369</v>
+        <v>-1.501406357056684</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2925559651302732</v>
+        <v>0.2939174916701983</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.662557518990801</v>
       </c>
       <c r="E39" t="n">
-        <v>1.455213059174633</v>
+        <v>1.460330195337981</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.460332328086343</v>
+        <v>-1.462909784397473</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2778325902696266</v>
+        <v>0.2789658840369631</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.557132178899798</v>
       </c>
       <c r="E40" t="n">
-        <v>1.22471369905136</v>
+        <v>1.230674509463726</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.532521567046556</v>
+        <v>-1.533841382079767</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2997240482086765</v>
+        <v>0.3000687583962414</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.445605601616963</v>
       </c>
       <c r="E41" t="n">
-        <v>1.141844740353121</v>
+        <v>1.147717405694694</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.472198071232268</v>
+        <v>-1.473663483034199</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2004286259605439</v>
+        <v>0.2008835174865999</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.331707045578647</v>
       </c>
       <c r="E42" t="n">
-        <v>1.005295433542044</v>
+        <v>1.010354330997905</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.354618055861546</v>
+        <v>-1.357487492719677</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1603603952087136</v>
+        <v>0.1608876916143494</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.218578394673754</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9180428315909831</v>
+        <v>0.9229616413450478</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.29152586041289</v>
+        <v>-1.293419405415815</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1197239435540938</v>
+        <v>0.1198892155618304</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.108467274172916</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7462559587113473</v>
+        <v>0.7520609412307043</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.217647698935521</v>
+        <v>-1.220507691678924</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1042954081271044</v>
+        <v>0.1045173448232078</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.004550170169402</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5878419522862822</v>
+        <v>0.5933431491152281</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.185920195507463</v>
+        <v>-1.187367506089499</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08969952881528317</v>
+        <v>0.08950749848248449</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9078057835448328</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4166170042329508</v>
+        <v>0.4219356148438259</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.046596679995093</v>
+        <v>-1.048765678344245</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01520592586148552</v>
+        <v>0.01510991069508618</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8179377913962974</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3391579492546227</v>
+        <v>0.3439429673833768</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.067269847134256</v>
+        <v>-1.067851447199577</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02379511992610292</v>
+        <v>-0.02380613805995203</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7361701642714596</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2041259968764793</v>
+        <v>0.2084655675939053</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9402425689974876</v>
+        <v>-0.9424265205282922</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01142962570916472</v>
+        <v>-0.01265263856641535</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6618327154966722</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2002602059145648</v>
+        <v>0.2039245224289528</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9116426415634541</v>
+        <v>-0.9139533016335235</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09258919964167078</v>
+        <v>-0.09260021777551988</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5938118485993418</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0217916218650076</v>
+        <v>0.02672302377204265</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8524862809276104</v>
+        <v>-0.8548945301832004</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1006749358677924</v>
+        <v>-0.1009944617494165</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.530690984741809</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01500602543308033</v>
+        <v>0.01804703037543326</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9451424905220966</v>
+        <v>-0.9465032300524611</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1438376882120999</v>
+        <v>-0.1437873196002183</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4698093985591952</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.03594654754254423</v>
+        <v>-0.03369412617996295</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9069536386010993</v>
+        <v>-0.9088125551833555</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1524082223275821</v>
+        <v>-0.1528221893564842</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4100625620173594</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1018239698263419</v>
+        <v>-0.09959673276970145</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.862093306634469</v>
+        <v>-0.8640954589567635</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1891379585231337</v>
+        <v>-0.1893410069897815</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3509126451393354</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2053409113578029</v>
+        <v>-0.2026225803353167</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8678227362360036</v>
+        <v>-0.8694376798544581</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2397363771964656</v>
+        <v>-0.2401424741297612</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2918597899500954</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2877077579563466</v>
+        <v>-0.2848131367922747</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.84935162184754</v>
+        <v>-0.851152299722308</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2305692898340104</v>
+        <v>-0.2318898918767817</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2329915214455904</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3206755884519896</v>
+        <v>-0.3180784569018434</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8349288846390618</v>
+        <v>-0.8370648285866669</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2341958298894872</v>
+        <v>-0.2353716221730988</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1750090038766808</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3763266085046967</v>
+        <v>-0.3733092138491633</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8359378308958155</v>
+        <v>-0.8377227685793706</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3474150252846456</v>
+        <v>-0.3478368624091542</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1175920180158355</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3968612619611854</v>
+        <v>-0.3938171089805899</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.741236183453199</v>
+        <v>-0.7431124142457894</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3569173787199379</v>
+        <v>-0.357394306513692</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.06042469325223588</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5101292519491042</v>
+        <v>-0.506809645622281</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7384863720482867</v>
+        <v>-0.7407513855638385</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4099618231077711</v>
+        <v>-0.4101979259759662</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.002553486683670348</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5274859607996869</v>
+        <v>-0.524026266771068</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7281671026890394</v>
+        <v>-0.7303124907513723</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4123259998279647</v>
+        <v>-0.4131948583829227</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.05769912513986112</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5419873989642302</v>
+        <v>-0.5389338018689068</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7402036269096258</v>
+        <v>-0.7425740997063046</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4533055876510281</v>
+        <v>-0.4537541831005988</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1204857094574064</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6498108568115699</v>
+        <v>-0.6465006945994746</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7802230630686957</v>
+        <v>-0.7829602823206376</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4865724817797181</v>
+        <v>-0.487272920288697</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.185510836179955</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7294640944449912</v>
+        <v>-0.7267111350018363</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7946473742962953</v>
+        <v>-0.7975781979001572</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5463804863317804</v>
+        <v>-0.5466527916397654</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2521643873753421</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7578672694888621</v>
+        <v>-0.7554039295640265</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8424031144365581</v>
+        <v>-0.8447790963001615</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5393918414332053</v>
+        <v>-0.5399096937241132</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3181964458892784</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8152780429191834</v>
+        <v>-0.8122338899385878</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8551794276441558</v>
+        <v>-0.8582369597872824</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5769904361837148</v>
+        <v>-0.577357182638978</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3816533089264972</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8431838279207232</v>
+        <v>-0.840143609987931</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9591457516347481</v>
+        <v>-0.9619451446419814</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6598688389966813</v>
+        <v>-0.6596406062240927</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4415334328334497</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9703000381378455</v>
+        <v>-0.9672511630998861</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9235752805220346</v>
+        <v>-0.9263463411850844</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6592156210613415</v>
+        <v>-0.6593446906292881</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4963309151453508</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.019284300202284</v>
+        <v>-1.01655731207463</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.00687552045951</v>
+        <v>-1.009715837963897</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7195918465161932</v>
+        <v>-0.7195037014454004</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5454611463159126</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.050395575144352</v>
+        <v>-1.046949260278264</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9726964822500258</v>
+        <v>-0.9755517529360652</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7489945237020901</v>
+        <v>-0.7486057409791288</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5883625492949842</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.199717260115224</v>
+        <v>-1.195208482342258</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9701379141683515</v>
+        <v>-0.9722707100777139</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7707207096334036</v>
+        <v>-0.7705129391093918</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6237718025911814</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.203564162847683</v>
+        <v>-1.199047514979111</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.012000526718465</v>
+        <v>-1.014019206241533</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8002807887314304</v>
+        <v>-0.7994575767309902</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6506962856747501</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.180565382456798</v>
+        <v>-1.175641063635809</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.100706735328047</v>
+        <v>-1.102155619929204</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7635557745932428</v>
+        <v>-0.7627845052238055</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6678108852483973</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.137651325133656</v>
+        <v>-1.131803057088463</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.167797726354367</v>
+        <v>-1.168625660412171</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7533466865724865</v>
+        <v>-0.7529689219833744</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6740473099188324</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.139333951574326</v>
+        <v>-1.133840624840987</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.161855804171457</v>
+        <v>-1.161947884290053</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7599843252070115</v>
+        <v>-0.7583095688619476</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6689465374411772</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.062424229269332</v>
+        <v>-1.055928252355724</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.192220207040469</v>
+        <v>-1.193339334635714</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7739631890232829</v>
+        <v>-0.7724741669345324</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6537697542992432</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9722069623033013</v>
+        <v>-0.965067998578642</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.273866152881457</v>
+        <v>-1.274096746682727</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7173362771153694</v>
+        <v>-0.7159165118679561</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6305380394660131</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.861098526549807</v>
+        <v>-0.8551691965198673</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.222464984456262</v>
+        <v>-1.223077277894447</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7278727611133562</v>
+        <v>-0.7257730196055411</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6000786876519432</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7699573103595727</v>
+        <v>-0.7635368863637871</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.224357742449626</v>
+        <v>-1.224925963352415</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6879398960059577</v>
+        <v>-0.6857189550258025</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5626719602837567</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6483548891243668</v>
+        <v>-0.6422508429719627</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.288537585111101</v>
+        <v>-1.288606841952438</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6643972920086634</v>
+        <v>-0.6622944024626056</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5171955322833943</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4733979417344314</v>
+        <v>-0.4668138197500306</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.204392096905487</v>
+        <v>-1.204974483980368</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6809433810117762</v>
+        <v>-0.6783793038631774</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.463128675795976</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2505609066936504</v>
+        <v>-0.2452407220636541</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.218304064909103</v>
+        <v>-1.218585027322255</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6131818578397815</v>
+        <v>-0.6113308113531319</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4001980262070794</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.08272482180847937</v>
+        <v>-0.07721260684568436</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.226798259097202</v>
+        <v>-1.227432588803087</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4810539707404379</v>
+        <v>-0.4800481725219268</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3291067348308664</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1071270685263244</v>
+        <v>0.112721132483427</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.142733045866775</v>
+        <v>-1.143804952888381</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4392086724006591</v>
+        <v>-0.4388608141748517</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2517386393086054</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2559726127130026</v>
+        <v>0.2621947102995043</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.115947175470041</v>
+        <v>-1.117626653872469</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3481123157553818</v>
+        <v>-0.3468578225157052</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1707707184195333</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4646009771458023</v>
+        <v>0.4695339530719587</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.093934518058651</v>
+        <v>-1.095573858973485</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2735840843809156</v>
+        <v>-0.2735038094057292</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09021068633913551</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6227898988365214</v>
+        <v>0.6277952796422576</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.986621829416173</v>
+        <v>-0.9883949619563183</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2152068632101157</v>
+        <v>-0.2141632885326933</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.01483571961992176</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8473788171593101</v>
+        <v>0.8522818867221617</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9387071133446587</v>
+        <v>-0.9406455178925406</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1576449839441495</v>
+        <v>-0.1565683548651798</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.05040668299010874</v>
       </c>
       <c r="E88" t="n">
-        <v>0.955528096964759</v>
+        <v>0.9597165618465401</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7647724913740082</v>
+        <v>-0.7669493598187671</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09404516732887391</v>
+        <v>-0.0937728620208889</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1018480886606628</v>
       </c>
       <c r="E89" t="n">
-        <v>1.199219311343653</v>
+        <v>1.203832761388185</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6078758393818769</v>
+        <v>-0.6100196534250885</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0277461362008881</v>
+        <v>0.02772409993318989</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1366688484598397</v>
       </c>
       <c r="E90" t="n">
-        <v>1.368032862103151</v>
+        <v>1.372106423589078</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5337788892466471</v>
+        <v>-0.5355528087963529</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04935899275546785</v>
+        <v>0.04895132180305097</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1538513653843058</v>
       </c>
       <c r="E91" t="n">
-        <v>1.44816617556857</v>
+        <v>1.452346770354744</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3167106342854331</v>
+        <v>-0.3195611829141087</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07799197459104866</v>
+        <v>0.0780911377956906</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1525406982339838</v>
       </c>
       <c r="E92" t="n">
-        <v>1.586259595137643</v>
+        <v>1.58993492978588</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2265240606922676</v>
+        <v>-0.2280949317753257</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09122160530558093</v>
+        <v>0.09142150573398612</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1327350189836755</v>
       </c>
       <c r="E93" t="n">
-        <v>1.596548958133585</v>
+        <v>1.600148739864</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.02124678296871711</v>
+        <v>-0.02336856074423043</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1171614404246163</v>
+        <v>0.1169741321491815</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0968086895887238</v>
       </c>
       <c r="E94" t="n">
-        <v>1.546847730359395</v>
+        <v>1.550116968074337</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1362527183468723</v>
+        <v>0.1346897173594207</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1304807902290627</v>
+        <v>0.130335980469903</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05022321926603063</v>
       </c>
       <c r="E95" t="n">
-        <v>1.540479248994612</v>
+        <v>1.542830833561835</v>
       </c>
       <c r="F95" t="n">
-        <v>0.191733744334479</v>
+        <v>0.1903423114312492</v>
       </c>
       <c r="G95" t="n">
-        <v>0.141700398525694</v>
+        <v>0.1414721657531054</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0001195681652327316</v>
       </c>
       <c r="E96" t="n">
-        <v>1.508270095715436</v>
+        <v>1.509641066370089</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2823358589756678</v>
+        <v>0.2810986799463255</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05207260172059023</v>
+        <v>0.052453514347945</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.0453906629005677</v>
       </c>
       <c r="E97" t="n">
-        <v>1.351930646492246</v>
+        <v>1.352147861130985</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2989685190304522</v>
+        <v>0.2982602104258669</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03146554338452162</v>
+        <v>0.03144980319330862</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08278784345171215</v>
       </c>
       <c r="E98" t="n">
-        <v>1.288971455659339</v>
+        <v>1.288425271024248</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2523932932311649</v>
+        <v>0.2515307307526921</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02757299409754502</v>
+        <v>0.02762021467118404</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1115510289822337</v>
       </c>
       <c r="E99" t="n">
-        <v>1.184661208490743</v>
+        <v>1.184074099358498</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2260394910832274</v>
+        <v>0.2258332945783371</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06035666435599575</v>
+        <v>0.05975853708990149</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1351700866895806</v>
       </c>
       <c r="E100" t="n">
-        <v>1.068068890118637</v>
+        <v>1.067177995295981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.222461745620511</v>
+        <v>0.2214937238609111</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02461541216862103</v>
+        <v>0.02415737260432253</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1549475199577429</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9072450604188604</v>
+        <v>0.9060204735424885</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1892011475683061</v>
+        <v>0.1885400595373599</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01432424687323668</v>
+        <v>-0.01515847700752605</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1776179773546789</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7381717965043471</v>
+        <v>0.7365584269050138</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1538990467157743</v>
+        <v>0.1532946233731949</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03779759402919384</v>
+        <v>-0.03829970612888876</v>
       </c>
     </row>
   </sheetData>
